--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mdk-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mdk-Lrp1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.324023666666666</v>
+        <v>2.180165333333334</v>
       </c>
       <c r="H2">
-        <v>3.972071</v>
+        <v>6.540496</v>
       </c>
       <c r="I2">
-        <v>0.01518042398701374</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="J2">
-        <v>0.01518042398701373</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N2">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O2">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P2">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q2">
-        <v>10.76594625520466</v>
+        <v>8.274146758465779</v>
       </c>
       <c r="R2">
-        <v>96.89351629684198</v>
+        <v>74.46732082619201</v>
       </c>
       <c r="S2">
-        <v>0.0003174219935334893</v>
+        <v>0.0002057664965649324</v>
       </c>
       <c r="T2">
-        <v>0.0003174219935334892</v>
+        <v>0.0002057664965649324</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.324023666666666</v>
+        <v>2.180165333333334</v>
       </c>
       <c r="H3">
-        <v>3.972071</v>
+        <v>6.540496</v>
       </c>
       <c r="I3">
-        <v>0.01518042398701374</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="J3">
-        <v>0.01518042398701373</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N3">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O3">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P3">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q3">
-        <v>322.2361117427684</v>
+        <v>530.6007873245796</v>
       </c>
       <c r="R3">
-        <v>2900.125005684916</v>
+        <v>4775.407085921217</v>
       </c>
       <c r="S3">
-        <v>0.009500774623356627</v>
+        <v>0.01319530197729029</v>
       </c>
       <c r="T3">
-        <v>0.009500774623356625</v>
+        <v>0.01319530197729029</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.324023666666666</v>
+        <v>2.180165333333334</v>
       </c>
       <c r="H4">
-        <v>3.972071</v>
+        <v>6.540496</v>
       </c>
       <c r="I4">
-        <v>0.01518042398701374</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="J4">
-        <v>0.01518042398701373</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N4">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O4">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P4">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q4">
-        <v>44.24721502773421</v>
+        <v>64.97191594000533</v>
       </c>
       <c r="R4">
-        <v>398.2249352496079</v>
+        <v>584.747243460048</v>
       </c>
       <c r="S4">
-        <v>0.00130458009630305</v>
+        <v>0.001615760985192522</v>
       </c>
       <c r="T4">
-        <v>0.00130458009630305</v>
+        <v>0.001615760985192522</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.324023666666666</v>
+        <v>2.180165333333334</v>
       </c>
       <c r="H5">
-        <v>3.972071</v>
+        <v>6.540496</v>
       </c>
       <c r="I5">
-        <v>0.01518042398701374</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="J5">
-        <v>0.01518042398701373</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N5">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O5">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P5">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q5">
-        <v>137.6225131291072</v>
+        <v>188.5337055097209</v>
       </c>
       <c r="R5">
-        <v>1238.602618161965</v>
+        <v>1696.803349587488</v>
       </c>
       <c r="S5">
-        <v>0.004057647273820572</v>
+        <v>0.004688570459237692</v>
       </c>
       <c r="T5">
-        <v>0.004057647273820571</v>
+        <v>0.004688570459237692</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>243.529606</v>
       </c>
       <c r="I6">
-        <v>0.9307191821270077</v>
+        <v>0.733713204346044</v>
       </c>
       <c r="J6">
-        <v>0.9307191821270073</v>
+        <v>0.7337132043460441</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N6">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O6">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P6">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q6">
-        <v>660.0654041046013</v>
+        <v>308.0805645436292</v>
       </c>
       <c r="R6">
-        <v>5940.588636941411</v>
+        <v>2772.725080892662</v>
       </c>
       <c r="S6">
-        <v>0.0194612968954848</v>
+        <v>0.007661534207261701</v>
       </c>
       <c r="T6">
-        <v>0.01946129689548479</v>
+        <v>0.007661534207261702</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>243.529606</v>
       </c>
       <c r="I7">
-        <v>0.9307191821270077</v>
+        <v>0.733713204346044</v>
       </c>
       <c r="J7">
-        <v>0.9307191821270073</v>
+        <v>0.7337132043460441</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N7">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O7">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P7">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q7">
-        <v>19756.45282566408</v>
+        <v>19756.45282566409</v>
       </c>
       <c r="R7">
         <v>177808.0754309768</v>
       </c>
       <c r="S7">
-        <v>0.582497115666069</v>
+        <v>0.4913154432906196</v>
       </c>
       <c r="T7">
-        <v>0.5824971156660688</v>
+        <v>0.4913154432906197</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>243.529606</v>
       </c>
       <c r="I8">
-        <v>0.9307191821270077</v>
+        <v>0.733713204346044</v>
       </c>
       <c r="J8">
-        <v>0.9307191821270073</v>
+        <v>0.7337132043460441</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N8">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O8">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P8">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q8">
-        <v>2712.818286053143</v>
+        <v>2419.172045963275</v>
       </c>
       <c r="R8">
-        <v>24415.36457447829</v>
+        <v>21772.54841366948</v>
       </c>
       <c r="S8">
-        <v>0.07998444057221632</v>
+        <v>0.06016143670359354</v>
       </c>
       <c r="T8">
-        <v>0.07998444057221629</v>
+        <v>0.06016143670359354</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>243.529606</v>
       </c>
       <c r="I9">
-        <v>0.9307191821270077</v>
+        <v>0.733713204346044</v>
       </c>
       <c r="J9">
-        <v>0.9307191821270073</v>
+        <v>0.7337132043460441</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N9">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O9">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P9">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q9">
-        <v>8437.703253305721</v>
+        <v>7019.886415419008</v>
       </c>
       <c r="R9">
-        <v>75939.32927975149</v>
+        <v>63178.97773877107</v>
       </c>
       <c r="S9">
-        <v>0.2487763289932376</v>
+        <v>0.1745747901445692</v>
       </c>
       <c r="T9">
-        <v>0.2487763289932375</v>
+        <v>0.1745747901445692</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.525915333333334</v>
+        <v>25.672264</v>
       </c>
       <c r="H10">
-        <v>10.577746</v>
+        <v>77.016792</v>
       </c>
       <c r="I10">
-        <v>0.04042593123510095</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="J10">
-        <v>0.04042593123510094</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N10">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O10">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P10">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q10">
-        <v>28.67004263952133</v>
+        <v>97.43117951210934</v>
       </c>
       <c r="R10">
-        <v>258.030383755692</v>
+        <v>876.880615608984</v>
       </c>
       <c r="S10">
-        <v>0.0008453044324763816</v>
+        <v>0.002422977625322317</v>
       </c>
       <c r="T10">
-        <v>0.0008453044324763813</v>
+        <v>0.002422977625322317</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.525915333333334</v>
+        <v>25.672264</v>
       </c>
       <c r="H11">
-        <v>10.577746</v>
+        <v>77.016792</v>
       </c>
       <c r="I11">
-        <v>0.04042593123510095</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="J11">
-        <v>0.04042593123510094</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N11">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O11">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P11">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q11">
-        <v>858.1245758302463</v>
+        <v>6248.023157939915</v>
       </c>
       <c r="R11">
-        <v>7723.121182472217</v>
+        <v>56232.20842145923</v>
       </c>
       <c r="S11">
-        <v>0.02530085206662018</v>
+        <v>0.1553796268298543</v>
       </c>
       <c r="T11">
-        <v>0.02530085206662017</v>
+        <v>0.1553796268298543</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.525915333333334</v>
+        <v>25.672264</v>
       </c>
       <c r="H12">
-        <v>10.577746</v>
+        <v>77.016792</v>
       </c>
       <c r="I12">
-        <v>0.04042593123510095</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="J12">
-        <v>0.04042593123510094</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N12">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O12">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P12">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q12">
-        <v>117.8316806952231</v>
+        <v>765.0686638739439</v>
       </c>
       <c r="R12">
-        <v>1060.485126257008</v>
+        <v>6885.617974865495</v>
       </c>
       <c r="S12">
-        <v>0.003474136513508748</v>
+        <v>0.01902619124272648</v>
       </c>
       <c r="T12">
-        <v>0.003474136513508747</v>
+        <v>0.01902619124272648</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.525915333333334</v>
+        <v>25.672264</v>
       </c>
       <c r="H13">
-        <v>10.577746</v>
+        <v>77.016792</v>
       </c>
       <c r="I13">
-        <v>0.04042593123510095</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="J13">
-        <v>0.04042593123510094</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N13">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O13">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P13">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q13">
-        <v>366.4929422866211</v>
+        <v>2220.055051211931</v>
       </c>
       <c r="R13">
-        <v>3298.43648057959</v>
+        <v>19980.49546090738</v>
       </c>
       <c r="S13">
-        <v>0.01080563822249564</v>
+        <v>0.05520967459294429</v>
       </c>
       <c r="T13">
-        <v>0.01080563822249564</v>
+        <v>0.05520967459294429</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.192675</v>
+        <v>1.608999666666667</v>
       </c>
       <c r="H14">
-        <v>3.578025</v>
+        <v>4.826999</v>
       </c>
       <c r="I14">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="J14">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N14">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O14">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P14">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q14">
-        <v>9.697919510949999</v>
+        <v>6.106463199269223</v>
       </c>
       <c r="R14">
-        <v>87.28127559855</v>
+        <v>54.95816879342301</v>
       </c>
       <c r="S14">
-        <v>0.000285932408663557</v>
+        <v>0.000151859227977883</v>
       </c>
       <c r="T14">
-        <v>0.0002859324086635569</v>
+        <v>0.000151859227977883</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.192675</v>
+        <v>1.608999666666667</v>
       </c>
       <c r="H15">
-        <v>3.578025</v>
+        <v>4.826999</v>
       </c>
       <c r="I15">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="J15">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N15">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O15">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P15">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q15">
-        <v>290.2689462797667</v>
+        <v>391.5925443292005</v>
       </c>
       <c r="R15">
-        <v>2612.4205165179</v>
+        <v>3524.332898962804</v>
       </c>
       <c r="S15">
-        <v>0.008558258178601442</v>
+        <v>0.00973836073733219</v>
       </c>
       <c r="T15">
-        <v>0.008558258178601438</v>
+        <v>0.00973836073733219</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.192675</v>
+        <v>1.608999666666667</v>
       </c>
       <c r="H16">
-        <v>3.578025</v>
+        <v>4.826999</v>
       </c>
       <c r="I16">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="J16">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N16">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O16">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P16">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q16">
-        <v>39.85770686113334</v>
+        <v>47.95039600520966</v>
       </c>
       <c r="R16">
-        <v>358.7193617502</v>
+        <v>431.5535640468869</v>
       </c>
       <c r="S16">
-        <v>0.001175160312863169</v>
+        <v>0.00119245951067982</v>
       </c>
       <c r="T16">
-        <v>0.001175160312863169</v>
+        <v>0.00119245951067982</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.192675</v>
+        <v>1.608999666666667</v>
       </c>
       <c r="H17">
-        <v>3.578025</v>
+        <v>4.826999</v>
       </c>
       <c r="I17">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="J17">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N17">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O17">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P17">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q17">
-        <v>123.9697861742083</v>
+        <v>139.1411305750691</v>
       </c>
       <c r="R17">
-        <v>1115.728075567875</v>
+        <v>1252.270175175622</v>
       </c>
       <c r="S17">
-        <v>0.003655111750749636</v>
+        <v>0.003460245968833232</v>
       </c>
       <c r="T17">
-        <v>0.003655111750749635</v>
+        <v>0.003460245968833232</v>
       </c>
     </row>
   </sheetData>
